--- a/DrivingStyleDataset.xlsx
+++ b/DrivingStyleDataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anndo\MATLAB\Projects\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anndo\Documents\GitHub\DrivingStyleClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E31D11-3B8F-4C94-9C64-61C8B115EFEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279D5BEB-C44F-4010-B13C-11914E801C65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="8832" xr2:uid="{E4241692-6C90-4260-888B-24EB2092848E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="14">
   <si>
     <t>SpeedAC</t>
   </si>
@@ -137,17 +137,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -625,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389AB992-EB4F-42B6-949E-D186BB2D0254}">
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -690,15 +680,15 @@
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C11" ca="1" si="0">1+RAND()*(5-1)</f>
-        <v>4.4563306561465614</v>
+        <v>2.9181642594297759</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D65" ca="1" si="1">A2+C2</f>
-        <v>46.990067769583504</v>
+        <v>45.451901372866715</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">C2/D2*100</f>
-        <v>9.4835586915904138</v>
+        <v>6.4203348403194056</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -728,15 +718,15 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8844838452482282</v>
+        <v>3.7176105877473531</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.775493015098291</v>
+        <v>52.608619757597417</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E66" ca="1" si="2">C3/D3*100</f>
-        <v>9.0831037920504691</v>
+        <v>7.066542716529792</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -766,15 +756,15 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9456594845208386</v>
+        <v>3.5649595597188131</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.248166812731355</v>
+        <v>44.867466887929332</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.693741666662948</v>
+        <v>7.9455333830711368</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -804,15 +794,15 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1908053975698687</v>
+        <v>1.3268804078547265</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.610877910378015</v>
+        <v>41.746952920662871</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1414228126857981</v>
+        <v>3.1783886368338519</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -842,15 +832,15 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2077912038652179</v>
+        <v>2.6724981253992288</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.98916359093716</v>
+        <v>53.45387051247117</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3231595210271125</v>
+        <v>4.9996344507470525</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -880,15 +870,15 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7867865981876765</v>
+        <v>1.7810297422546415</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.891613789872537</v>
+        <v>50.8858569339395</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.882247647754097</v>
+        <v>3.5000486374176445</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -918,15 +908,15 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2901274240955356</v>
+        <v>4.7976070543416256</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.076823869320499</v>
+        <v>36.584303499566587</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11.891643897576673</v>
+        <v>13.113840077339351</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -956,15 +946,15 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7859624191713257</v>
+        <v>4.3216172367472581</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.085090308916776</v>
+        <v>35.620745126492707</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3980883911626805</v>
+        <v>12.132304423730547</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -994,15 +984,15 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8235212473954707</v>
+        <v>2.3996045401937205</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>59.205758197803931</v>
+        <v>56.781841490602183</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.147047507237879</v>
+        <v>4.2260069015036663</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1032,15 +1022,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.994962992943262</v>
+        <v>1.3228154767804532</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.253013282866327</v>
+        <v>53.580865766703518</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6771468942044776</v>
+        <v>2.4688206467960501</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1070,15 +1060,15 @@
       </c>
       <c r="C12" s="1">
         <f ca="1" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-2.7443873012242048</v>
+        <v>-1.8706874592510223</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.112324127813636</v>
+        <v>46.986023969786821</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.9515267406980872</v>
+        <v>-3.981369993030099</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1108,15 +1098,15 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ref="C13:C25" ca="1" si="3" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-2.8229988321788051</v>
+        <v>-2.6189057554134489</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.030902400040254</v>
+        <v>34.234995476805608</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.2953981031530493</v>
+        <v>-7.6497914456795284</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1146,15 +1136,15 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.5788622190440997</v>
+        <v>-1.1533169527962484</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.321147224491327</v>
+        <v>44.746692490739179</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.4564395196097273</v>
+        <v>-2.5774350875987984</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1184,15 +1174,15 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.1749543101901723</v>
+        <v>-2.9552009945265416</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.002812202290286</v>
+        <v>38.222565517953917</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.3545246422548427</v>
+        <v>-7.7315610673449529</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1222,15 +1212,15 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.7394977496121813</v>
+        <v>-3.0556519790842374</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.528947426547475</v>
+        <v>33.21279319707542</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.1705450360875567</v>
+        <v>-9.2002258315127357</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1260,15 +1250,15 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2670892632027013</v>
+        <v>-4.2852314827059104</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.256891840965636</v>
+        <v>44.238749621462425</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.6812793094113276</v>
+        <v>-9.6866017221854985</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1298,15 +1288,15 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.610737226122156</v>
+        <v>-3.3340425649662855</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.368871361068173</v>
+        <v>40.645566022224045</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.8016996308337521</v>
+        <v>-8.2027214558737089</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1336,15 +1326,15 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.6415280802831873</v>
+        <v>-2.4871740016144548</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.200738523131982</v>
+        <v>39.355092601800713</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-12.476978319656249</v>
+        <v>-6.3198275932925974</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -1374,15 +1364,15 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.5453445319717765</v>
+        <v>-1.5595452930909546</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.103241965273071</v>
+        <v>34.089041204153894</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.6891095278280241</v>
+        <v>-4.5749168589139355</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1412,15 +1402,15 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.2856054409683759</v>
+        <v>-2.5708229910938569</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.671375473410627</v>
+        <v>40.386157923285147</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-11.082112773348443</v>
+        <v>-6.3656042646523119</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1450,15 +1440,15 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.4165242321591465</v>
+        <v>-4.3115354934585515</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.385373577792912</v>
+        <v>28.49036231649351</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.9529192753623352</v>
+        <v>-15.133312260344745</v>
       </c>
       <c r="F22" s="1">
         <v>2</v>
@@ -1488,15 +1478,15 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.2582972716465513</v>
+        <v>-3.4220642545212017</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.184560135935115</v>
+        <v>32.020793153060467</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-10.123789972225085</v>
+        <v>-10.687006527800918</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1526,15 +1516,15 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0848233717490188</v>
+        <v>-4.5408433326105069</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.87105713665985</v>
+        <v>31.415037175798361</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.1109563656117176</v>
+        <v>-14.454362435415799</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -1564,15 +1554,15 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.1542613215374984</v>
+        <v>-3.0223387553803871</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.399091092472588</v>
+        <v>29.531013658629696</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.6760978785599732</v>
+        <v>-10.234456528711755</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
@@ -1602,15 +1592,15 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ref="C26:C35" ca="1" si="4">1+RAND()*(5-1)</f>
-        <v>1.6822761415818488</v>
+        <v>1.4797611485936049</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.408500294763343</v>
+        <v>36.205985301775094</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6205587375534156</v>
+        <v>4.0870622253748072</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1640,15 +1630,15 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1722602774040496</v>
+        <v>2.0611239254548797</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.4199289197485</v>
+        <v>55.30879256779933</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2662233407416839</v>
+        <v>3.7265755221980057</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1678,15 +1668,15 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8978198610287027</v>
+        <v>1.9442668377381702</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.842317145862303</v>
+        <v>43.888764122571772</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4622438033314049</v>
+        <v>4.429987666793842</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -1716,15 +1706,15 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9055172220676031</v>
+        <v>3.0817210819367618</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.683398147448216</v>
+        <v>55.859602007317378</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5042098413278246</v>
+        <v>5.5169048313897209</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1754,15 +1744,15 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6251256189161989</v>
+        <v>1.8371406440545943</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.208424967104776</v>
+        <v>50.420439992243168</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1263549320302761</v>
+        <v>3.6436426265562649</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -1792,15 +1782,15 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5832408351266873</v>
+        <v>3.3102400228853668</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.600469850979927</v>
+        <v>44.327469038738606</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0340876387605125</v>
+        <v>7.4676946251826068</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
@@ -1830,15 +1820,15 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1488164288341793</v>
+        <v>2.4861987730049244</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>60.742573814390568</v>
+        <v>61.079956158561309</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5375788246975826</v>
+        <v>4.0704003888785447</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1868,15 +1858,15 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0368471134639723</v>
+        <v>3.9180678953225456</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.053391161438903</v>
+        <v>54.934611943297476</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6182360592214344</v>
+        <v>7.1322391416302446</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1906,15 +1896,15 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0758133744821676</v>
+        <v>4.6907194188632193</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>58.426545009977012</v>
+        <v>60.041451054358063</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2644108494810649</v>
+        <v>7.8124684472007724</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
@@ -1944,15 +1934,15 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.8168658921826921</v>
+        <v>3.5720979717098706</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.085199272116057</v>
+        <v>46.84043135164324</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1062965670468063</v>
+        <v>7.6260996507338001</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -1982,15 +1972,15 @@
       </c>
       <c r="C36" s="1">
         <f ca="1" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-2.9980905866561027</v>
+        <v>-1.9825445744827022</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.644683203205673</v>
+        <v>53.660229215379076</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.694954180052016</v>
+        <v>-3.6946256165348301</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -2020,15 +2010,15 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ref="C37:C50" ca="1" si="5" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-2.2204529422255082</v>
+        <v>-1.8654960319708382</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.201270461969692</v>
+        <v>41.556227372224363</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.3892827025202266</v>
+        <v>-4.4890890004555883</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
@@ -2058,15 +2048,15 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.7328857942301443</v>
+        <v>-3.1251350455128115</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.907472431726291</v>
+        <v>53.51522318044362</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.1560108624283698</v>
+        <v>-5.8397122534188508</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2096,15 +2086,15 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.7354288211248572</v>
+        <v>-2.2920282310078419</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.207089112709603</v>
+        <v>41.650489702826619</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.6382481267796276</v>
+        <v>-5.5030042800488195</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -2134,15 +2124,15 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.7601644616261538</v>
+        <v>-4.1458507544289409</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.163915335050753</v>
+        <v>48.778229042247965</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.6482201142865343</v>
+        <v>-8.4993876076110162</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
@@ -2172,15 +2162,15 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.865701419806109</v>
+        <v>-3.2273287032020201</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.121022956227698</v>
+        <v>44.759395672831786</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.7615861120021101</v>
+        <v>-7.2103938283531273</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2210,15 +2200,15 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.3492021516427588</v>
+        <v>-3.5229322827544762</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.376762636550168</v>
+        <v>39.203032505438451</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.8182033383632286</v>
+        <v>-8.9863769652660324</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -2248,15 +2238,15 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.8561338948860255</v>
+        <v>-2.5172185367586319</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.166758760570168</v>
+        <v>36.505674118697563</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-10.965280938002216</v>
+        <v>-6.8954172126062918</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
@@ -2286,15 +2276,15 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.825145036842835</v>
+        <v>-3.9414597355229515</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.720574464394701</v>
+        <v>32.604259765714581</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-11.690335819150162</v>
+        <v>-12.088787673283241</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -2324,15 +2314,15 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.125387731088054</v>
+        <v>-4.0706364036225011</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.227192814050028</v>
+        <v>39.281944141515581</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.1553054816861854</v>
+        <v>-10.362614408690638</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -2362,15 +2352,15 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.7139437650299576</v>
+        <v>-4.0721947579875302</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.081934148672282</v>
+        <v>45.72368315571471</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.5646314886800075</v>
+        <v>-8.9060952157319218</v>
       </c>
       <c r="F46" s="1">
         <v>2</v>
@@ -2400,15 +2390,15 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.5522384155069222</v>
+        <v>-4.5357444344369791</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.525712724958261</v>
+        <v>49.542206706028203</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.1916666415036605</v>
+        <v>-9.1553136931324417</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2438,15 +2428,15 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.6407553926126521</v>
+        <v>-2.5167637391430606</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.645458826474574</v>
+        <v>49.769450479944169</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.7401840740254979</v>
+        <v>-5.0568445399196298</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -2476,15 +2466,15 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.6964114693656818</v>
+        <v>-2.8027010849502063</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.929146306767365</v>
+        <v>36.822856691182842</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.4725801515416812</v>
+        <v>-7.611308129771766</v>
       </c>
       <c r="F49" s="1">
         <v>2</v>
@@ -2514,15 +2504,15 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.8389362991885267</v>
+        <v>-3.703490669228271</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.054865989164973</v>
+        <v>29.190311619125229</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-13.212713838088696</v>
+        <v>-12.687396823820741</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2552,15 +2542,15 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" ref="C51:C60" ca="1" si="6">1+RAND()*(5-1)</f>
-        <v>4.8152584635782159</v>
+        <v>4.4919680439129781</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.34899557701516</v>
+        <v>47.025705157349918</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.16971617855334</v>
+        <v>9.5521545692566878</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -2590,15 +2580,15 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7900772788122374</v>
+        <v>4.8701956461725295</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.546576921953406</v>
+        <v>29.626695289313698</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7431566942700059</v>
+        <v>16.438538279796607</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
@@ -2628,15 +2618,15 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4220342149431477</v>
+        <v>4.7400283613295695</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.161951698375937</v>
+        <v>18.479945844762355</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.347791957505159</v>
+        <v>25.649579285282393</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -2666,15 +2656,15 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1874588846723055</v>
+        <v>2.0820386286273491</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.530121172959525</v>
+        <v>12.424700916914571</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.457603597584708</v>
+        <v>16.757253494874323</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
@@ -2704,15 +2694,15 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.287184963149314</v>
+        <v>1.8739971743163104</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.117531238882151</v>
+        <v>23.704343450049148</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13.087213595501471</v>
+        <v>7.9057122095167118</v>
       </c>
       <c r="F55" s="1">
         <v>2</v>
@@ -2742,15 +2732,15 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9305481819552237</v>
+        <v>2.6815535634533023</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.369211101278978</v>
+        <v>26.120216482777057</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11.113522398146694</v>
+        <v>10.266199612937527</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -2780,15 +2770,15 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5928928223531509</v>
+        <v>4.3704309324673307</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.55479191876865</v>
+        <v>16.332330028882829</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.098302060973968</v>
+        <v>26.759384146282027</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -2818,15 +2808,15 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6832375797719932</v>
+        <v>3.2288112677443168</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.987304601740806</v>
+        <v>15.532878289713132</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.03851506883116</v>
+        <v>20.786947579977131</v>
       </c>
       <c r="F58" s="1">
         <v>2</v>
@@ -2856,15 +2846,15 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5203029896217357</v>
+        <v>1.9094221724829974</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.037768211511668</v>
+        <v>16.42688739437293</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.743870286688438</v>
+        <v>11.623761255812068</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -2894,15 +2884,15 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.356135986120524</v>
+        <v>3.967176252524574</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.779434197932062</v>
+        <v>32.390474464336116</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13.289234828816346</v>
+        <v>12.247972029223209</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
@@ -2932,15 +2922,15 @@
       </c>
       <c r="C61" s="1">
         <f ca="1" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-3.0132444181845721</v>
+        <v>-3.558897549898778</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>13.472461611385205</v>
+        <v>12.926808479670999</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-22.36595289785916</v>
+        <v>-27.531138528861039</v>
       </c>
       <c r="F61" s="1">
         <v>2</v>
@@ -2970,15 +2960,15 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" ref="C62:C74" ca="1" si="7" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-2.076672530260455</v>
+        <v>-4.1977060266904207</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1564985906968221</v>
+        <v>7.035465094266856</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-22.679766831072239</v>
+        <v>-59.664939992540042</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3008,15 +2998,15 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.2559884730729767</v>
+        <v>-4.4052886037052872</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.056581872125484</v>
+        <v>23.907281741493172</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.6580368988703089</v>
+        <v>-18.42655577216679</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
@@ -3046,15 +3036,15 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.4384421835552392</v>
+        <v>-1.1602643785271884</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.92703489437741</v>
+        <v>22.205212699405461</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-11.652115055298111</v>
+        <v>-5.2251892122530954</v>
       </c>
       <c r="F64" s="1">
         <v>2</v>
@@ -3084,15 +3074,15 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.9191174439034557</v>
+        <v>-3.8182807324809294</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.389400068693757</v>
+        <v>14.490236780116284</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-11.709503922411788</v>
+        <v>-26.350713176201719</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3122,15 +3112,15 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.2590383657401185</v>
+        <v>-2.4566186723973598</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" ref="D66:D129" ca="1" si="8">A66+C66</f>
-        <v>13.105580613773554</v>
+        <v>12.908000307116314</v>
       </c>
       <c r="E66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-17.237224601601703</v>
+        <v>-19.031752509666429</v>
       </c>
       <c r="F66" s="1">
         <v>1</v>
@@ -3160,15 +3150,15 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.277954387651564</v>
+        <v>-2.6922137327609161</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>23.26269764983611</v>
+        <v>22.848438304726759</v>
       </c>
       <c r="E67" s="2">
         <f t="shared" ref="E67:E130" ca="1" si="9">C67/D67*100</f>
-        <v>-9.7923053548676151</v>
+        <v>-11.782922302413841</v>
       </c>
       <c r="F67" s="1">
         <v>2</v>
@@ -3198,15 +3188,15 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.3393312195686251</v>
+        <v>-2.9938211558586856</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>12.201712075828972</v>
+        <v>10.54722213953891</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-10.976584361646907</v>
+        <v>-28.384925587521241</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3236,15 +3226,15 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.2013601735216417</v>
+        <v>-2.5321938920866187</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>24.369544618623344</v>
+        <v>23.038710900058369</v>
       </c>
       <c r="E69" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.9297604543810616</v>
+        <v>-10.991039833223496</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
@@ -3274,15 +3264,15 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.1631004952966078</v>
+        <v>-4.6589850269803934</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>25.513426454058603</v>
+        <v>23.017541922374818</v>
       </c>
       <c r="E70" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-8.4782829902978705</v>
+        <v>-20.241018970194652</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
@@ -3312,15 +3302,15 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-3.2947475202034178</v>
+        <v>-4.6953459566024867</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>24.635416235278157</v>
+        <v>23.234817798879089</v>
       </c>
       <c r="E71" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-13.374028223177763</v>
+        <v>-20.20823230569513</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -3350,15 +3340,15 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4.6741065315474444</v>
+        <v>-4.489855492646651</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>19.158601600244516</v>
+        <v>19.34285263914531</v>
       </c>
       <c r="E72" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-24.39690865270558</v>
+        <v>-23.211961422692415</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -3388,15 +3378,15 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4.5214018903669864</v>
+        <v>-2.0977177398557214</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>20.126487952783179</v>
+        <v>22.550172103294447</v>
       </c>
       <c r="E73" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-22.46493228711444</v>
+        <v>-9.3024466964012973</v>
       </c>
       <c r="F73" s="1">
         <v>2</v>
@@ -3426,15 +3416,15 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.1035251446527035</v>
+        <v>-1.321685269833615</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>14.363211491191599</v>
+        <v>15.145051366010687</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-14.64522851273696</v>
+        <v>-8.7268457391951131</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -3464,15 +3454,15 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" ref="C75:C84" ca="1" si="10">1+RAND()*(5-1)</f>
-        <v>1.5912785044522431</v>
+        <v>4.3518519399817279</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>30.141717751296291</v>
+        <v>32.902291186825778</v>
       </c>
       <c r="E75" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2793225574670766</v>
+        <v>13.226592383098929</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
@@ -3502,15 +3492,15 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9717981524062136</v>
+        <v>2.7411051814994409</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>23.473610355267361</v>
+        <v>21.242917384360588</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>21.180372670242296</v>
+        <v>12.903619271793106</v>
       </c>
       <c r="F76" s="1">
         <v>2</v>
@@ -3540,15 +3530,15 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.2187415273692328</v>
+        <v>3.0790848990972863</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>21.859099809473875</v>
+        <v>21.719443181201928</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>14.724950045629095</v>
+        <v>14.176629084866315</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -3578,15 +3568,15 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.934212710670415</v>
+        <v>2.6962597961625754</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>24.209170379314816</v>
+        <v>22.971217464806976</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>16.250919172479978</v>
+        <v>11.737557229142846</v>
       </c>
       <c r="F78" s="1">
         <v>1</v>
@@ -3616,15 +3606,15 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4.8535395308346949</v>
+        <v>1.7295228594048555</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>24.817573613216048</v>
+        <v>21.693556941786209</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>19.556865656882952</v>
+        <v>7.9725185871821802</v>
       </c>
       <c r="F79" s="1">
         <v>2</v>
@@ -3654,15 +3644,15 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1623482848126141</v>
+        <v>2.4751898773122121</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>22.275719999683375</v>
+        <v>23.588561592182973</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.218005455397785</v>
+        <v>10.493178516372387</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -3692,15 +3682,15 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.3143330758117937</v>
+        <v>3.6731835387783196</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>18.249117920580673</v>
+        <v>19.607968383547199</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>12.6818900830367</v>
+        <v>18.733116388847513</v>
       </c>
       <c r="F81" s="1">
         <v>1</v>
@@ -3730,15 +3720,15 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.7577486678973626</v>
+        <v>3.2758318050372717</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>23.903802770527083</v>
+        <v>23.42188590766699</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>15.720296489940056</v>
+        <v>13.986199992396648</v>
       </c>
       <c r="F82" s="1">
         <v>2</v>
@@ -3768,15 +3758,15 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.4424024394142352</v>
+        <v>3.8813967150481501</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>24.395258446857294</v>
+        <v>25.834252722491211</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>10.011791614074401</v>
+        <v>15.024226776526884</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -3806,15 +3796,15 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3677092334477976</v>
+        <v>2.762233698578711</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>20.476804819421087</v>
+        <v>21.871329284552001</v>
       </c>
       <c r="E84" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6793098118052248</v>
+        <v>12.62947332848997</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -3844,15 +3834,15 @@
       </c>
       <c r="C85" s="1">
         <f ca="1" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-1.4904906232772648</v>
+        <v>-3.2401071481290797</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>11.040801742947668</v>
+        <v>9.2911852180958512</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-13.49984048241169</v>
+        <v>-34.87291526401313</v>
       </c>
       <c r="F85" s="1">
         <v>2</v>
@@ -3882,15 +3872,15 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" ref="C86:C99" ca="1" si="11" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-4.553096402132498</v>
+        <v>-1.5950624243664757</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>22.327974536083815</v>
+        <v>25.28600851384984</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-20.391891771348654</v>
+        <v>-6.3080830788015296</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -3920,15 +3910,15 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-4.5937058041231085</v>
+        <v>-4.6249922962551713</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>23.474554822326862</v>
+        <v>23.443268330194797</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-19.568872930250389</v>
+        <v>-19.728444989465089</v>
       </c>
       <c r="F87" s="1">
         <v>1</v>
@@ -3958,15 +3948,15 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-3.828167919093437</v>
+        <v>-3.5694016721331279</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10.329469439855171</v>
+        <v>10.58823568681548</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-37.060644221695007</v>
+        <v>-33.711014542089984</v>
       </c>
       <c r="F88" s="1">
         <v>2</v>
@@ -3996,15 +3986,15 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.6709403592888941</v>
+        <v>-2.5425169708052291</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>24.276520749749654</v>
+        <v>23.404944138233319</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-6.8829482466350749</v>
+        <v>-10.863161884893721</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -4034,15 +4024,15 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-2.9254094339623662</v>
+        <v>-1.8298897493125499</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10.201606354949027</v>
+        <v>11.297126039598844</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-28.675968589428908</v>
+        <v>-16.197834235879061</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -4072,15 +4062,15 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-3.0255621968329769</v>
+        <v>-2.374375674859154</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>17.267299786127023</v>
+        <v>17.918486308100846</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-17.521918506701255</v>
+        <v>-13.250983559842954</v>
       </c>
       <c r="F91" s="1">
         <v>2</v>
@@ -4110,15 +4100,15 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-2.6465359454430564</v>
+        <v>-2.1506551328748</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>17.26167206014135</v>
+        <v>17.757552872709606</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-15.331863195073264</v>
+        <v>-12.11121345543055</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -4148,15 +4138,15 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-3.3404046263696956</v>
+        <v>-4.7158938105154595</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10.055091511354936</v>
+        <v>8.6796023272091709</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-33.221026607241413</v>
+        <v>-54.333063114330528</v>
       </c>
       <c r="F93" s="1">
         <v>1</v>
@@ -4186,15 +4176,15 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-2.6811317678451649</v>
+        <v>-2.4394761960860132</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>18.832468529935788</v>
+        <v>19.074124101694942</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-14.23675161640802</v>
+        <v>-12.789453308994878</v>
       </c>
       <c r="F94" s="1">
         <v>2</v>
@@ -4224,15 +4214,15 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-3.3296203917009235</v>
+        <v>-1.6079323474433243</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>16.861233816269799</v>
+        <v>18.582921860527399</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-19.747193046383682</v>
+        <v>-8.6527423378924428</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -4262,15 +4252,15 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.4922895781676924</v>
+        <v>-4.0870476590461688</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>22.799778871157883</v>
+        <v>20.205020790279406</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-6.5451932082352986</v>
+        <v>-20.227881482866074</v>
       </c>
       <c r="F96" s="1">
         <v>1</v>
@@ -4300,15 +4290,15 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.2597291270730477</v>
+        <v>-2.849254788675458</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>24.804566801109697</v>
+        <v>23.215041139507285</v>
       </c>
       <c r="E97" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.0786177286381413</v>
+        <v>-12.273313545099022</v>
       </c>
       <c r="F97" s="1">
         <v>2</v>
@@ -4338,15 +4328,15 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-2.3043505796175392</v>
+        <v>-3.8895088118322918</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9.4239056163885451</v>
+        <v>7.8387473841737929</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-24.452182284276937</v>
+        <v>-49.619009533144279</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -4376,15 +4366,15 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>-3.2674667951043008</v>
+        <v>-4.4977131624699398</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>12.263052952658375</v>
+        <v>11.032806585292736</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-26.6448070290358</v>
+        <v>-40.766718130141143</v>
       </c>
       <c r="F99" s="1">
         <v>1</v>
@@ -4414,15 +4404,15 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" ref="C100:C109" ca="1" si="12">1+RAND()*(5-1)</f>
-        <v>2.851639363572509</v>
+        <v>4.3081434383306529</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>18.418657725437011</v>
+        <v>19.875161800195158</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>15.482340820277388</v>
+        <v>21.67601693832928</v>
       </c>
       <c r="F100" s="1">
         <v>2</v>
@@ -4452,15 +4442,15 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.2307314790799095</v>
+        <v>4.9517977043049726</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>80.703019740202379</v>
+        <v>83.424085965427452</v>
       </c>
       <c r="E101" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2.764123927779949</v>
+        <v>5.9356930879135943</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -4490,15 +4480,15 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4.6454732422608274</v>
+        <v>1.4540264810459638</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>68.299638623968065</v>
+        <v>65.108191862753188</v>
       </c>
       <c r="E102" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6.8016073523273572</v>
+        <v>2.233246599922516</v>
       </c>
       <c r="F102" s="1">
         <v>1</v>
@@ -4528,15 +4518,15 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.9939412342844927</v>
+        <v>4.5299651527906413</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>86.495329917175454</v>
+        <v>88.0313538356816</v>
       </c>
       <c r="E103" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3.4613906174487958</v>
+        <v>5.1458542387593251</v>
       </c>
       <c r="F103" s="1">
         <v>2</v>
@@ -4566,15 +4556,15 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3.37376803460092</v>
+        <v>4.9142760857796368</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>68.242093110437025</v>
+        <v>69.782601161615744</v>
       </c>
       <c r="E104" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9438226186015566</v>
+        <v>7.0422655561351561</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -4604,15 +4594,15 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4.6933575801149034</v>
+        <v>1.6827466537724045</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>84.975499429266719</v>
+        <v>81.964888502924211</v>
       </c>
       <c r="E105" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5231891682162297</v>
+        <v>2.0530091414842468</v>
       </c>
       <c r="F105" s="1">
         <v>1</v>
@@ -4642,15 +4632,15 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.2074084073687512</v>
+        <v>3.4078808602299939</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>71.246338418668856</v>
+        <v>72.446810871530104</v>
       </c>
       <c r="E106" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3.0982762852979664</v>
+        <v>4.7039763644988977</v>
       </c>
       <c r="F106" s="1">
         <v>2</v>
@@ -4680,15 +4670,15 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3.0796692688593437</v>
+        <v>3.4819935935161386</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>72.730710701545661</v>
+        <v>73.13303502620245</v>
       </c>
       <c r="E107" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4.2343450781017804</v>
+        <v>4.7611774791906196</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -4718,15 +4708,15 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.6019073687301209</v>
+        <v>3.1063420454862443</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>70.324551726470446</v>
+        <v>71.828986403226565</v>
       </c>
       <c r="E108" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2.277877824178375</v>
+        <v>4.324635778720535</v>
       </c>
       <c r="F108" s="1">
         <v>1</v>
@@ -4756,15 +4746,15 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.4861040883286538</v>
+        <v>2.1859179395197446</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>68.3555077265992</v>
+        <v>68.055321577790281</v>
       </c>
       <c r="E109" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3.6370208795351182</v>
+        <v>3.2119720968787764</v>
       </c>
       <c r="F109" s="1">
         <v>2</v>
@@ -4794,15 +4784,15 @@
       </c>
       <c r="C110" s="1">
         <f ca="1" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-4.1497463137330026</v>
+        <v>-1.4043177611800042</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>57.436454480358101</v>
+        <v>60.181883032911102</v>
       </c>
       <c r="E110" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-7.2249346713281497</v>
+        <v>-2.3334560010560623</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -4832,15 +4822,15 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" ref="C111:C123" ca="1" si="13" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-1.5860750626091651</v>
+        <v>-3.9007255102195058</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>73.018685996321182</v>
+        <v>70.704035548710849</v>
       </c>
       <c r="E111" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.1721495545524805</v>
+        <v>-5.5169771851737366</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4870,15 +4860,15 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.8133365994124113</v>
+        <v>-1.2616747809016919</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>80.779684464939365</v>
+        <v>82.331346283450088</v>
       </c>
       <c r="E112" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.4827278888833462</v>
+        <v>-1.5324355034326806</v>
       </c>
       <c r="F112" s="1">
         <v>2</v>
@@ -4908,15 +4898,15 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.1481372014495381</v>
+        <v>-3.1347348351028059</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>68.193027956873919</v>
+        <v>69.206430323220658</v>
       </c>
       <c r="E113" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-6.0829344666625884</v>
+        <v>-4.5295427324634252</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -4946,15 +4936,15 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.7458450827259799</v>
+        <v>-1.9730553223266987</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>82.143422452453223</v>
+        <v>84.9162122128525</v>
       </c>
       <c r="E114" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.7775107744907999</v>
+        <v>-2.3235319509789285</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
@@ -4984,15 +4974,15 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.3559751978204244</v>
+        <v>-1.3336626285819468</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>62.221764169672177</v>
+        <v>62.244076738910657</v>
       </c>
       <c r="E115" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.179261896404646</v>
+        <v>-2.142633803014117</v>
       </c>
       <c r="F115" s="1">
         <v>2</v>
@@ -5022,15 +5012,15 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.9532134809772397</v>
+        <v>-2.7896052105003077</v>
       </c>
       <c r="D116" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>69.079109372909883</v>
+        <v>69.242717643386811</v>
       </c>
       <c r="E116" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.2751180607076185</v>
+        <v>-4.028734436547257</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -5060,15 +5050,15 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.9280545424214361</v>
+        <v>-4.5133041299779535</v>
       </c>
       <c r="D117" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>68.811330846038786</v>
+        <v>69.226081258482267</v>
       </c>
       <c r="E117" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-7.1616904975252718</v>
+        <v>-6.5196585563261795</v>
       </c>
       <c r="F117" s="1">
         <v>1</v>
@@ -5098,15 +5088,15 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.1873399186517322</v>
+        <v>-3.8790982877682962</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>61.172112826569958</v>
+        <v>61.480354457453394</v>
       </c>
       <c r="E118" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-6.845177851749745</v>
+        <v>-6.3094923931396183</v>
       </c>
       <c r="F118" s="1">
         <v>2</v>
@@ -5136,15 +5126,15 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.9776764063202901</v>
+        <v>-4.8769593934053468</v>
       </c>
       <c r="D119" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>62.474253195458111</v>
+        <v>62.57497020837306</v>
       </c>
       <c r="E119" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-7.9675644793176463</v>
+        <v>-7.7937862010404411</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -5174,15 +5164,15 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.9828677876005352</v>
+        <v>-2.9452352539736784</v>
       </c>
       <c r="D120" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>69.838668719917152</v>
+        <v>70.876301253544014</v>
       </c>
       <c r="E120" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.7029549110873425</v>
+        <v>-4.1554584563290939</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
@@ -5212,15 +5202,15 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.3444273687673376</v>
+        <v>-3.2889913846185226</v>
       </c>
       <c r="D121" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>72.087111438892222</v>
+        <v>72.142547423041037</v>
       </c>
       <c r="E121" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.6394248597440155</v>
+        <v>-4.5590175314048835</v>
       </c>
       <c r="F121" s="1">
         <v>2</v>
@@ -5250,15 +5240,15 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.1951133771985516</v>
+        <v>-3.6623948945589526</v>
       </c>
       <c r="D122" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>64.568338198628339</v>
+        <v>65.101056681267934</v>
       </c>
       <c r="E122" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-6.4971679529575859</v>
+        <v>-5.6257072945680218</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -5288,15 +5278,15 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.129021342821904</v>
+        <v>-1.2756991697232536</v>
       </c>
       <c r="D123" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>84.295442796760369</v>
+        <v>87.148764969859016</v>
       </c>
       <c r="E123" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.8982735078302353</v>
+        <v>-1.46381784086609</v>
       </c>
       <c r="F123" s="1">
         <v>1</v>
@@ -5326,15 +5316,15 @@
       </c>
       <c r="C124" s="1">
         <f t="shared" ref="C124:C127" ca="1" si="14">1+RAND()*(5-1)</f>
-        <v>3.4036709976629216</v>
+        <v>1.5762031544300616</v>
       </c>
       <c r="D124" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>74.401316386344519</v>
+        <v>72.573848543111652</v>
       </c>
       <c r="E124" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5747456671178268</v>
+        <v>2.1718610574906148</v>
       </c>
       <c r="F124" s="1">
         <v>2</v>
@@ -5364,15 +5354,15 @@
       </c>
       <c r="C125" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1.8519765877863477</v>
+        <v>2.9671865975711795</v>
       </c>
       <c r="D125" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>76.83636217041888</v>
+        <v>77.951572180203712</v>
       </c>
       <c r="E125" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4102866604730244</v>
+        <v>3.8064486893372949</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -5402,15 +5392,15 @@
       </c>
       <c r="C126" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3.4419232878450843</v>
+        <v>4.9580918366979816</v>
       </c>
       <c r="D126" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>84.132520658512036</v>
+        <v>85.648689207364924</v>
       </c>
       <c r="E126" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0910735360177881</v>
+        <v>5.7888706559114924</v>
       </c>
       <c r="F126" s="1">
         <v>1</v>
@@ -5440,15 +5430,15 @@
       </c>
       <c r="C127" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3.1967868336586096</v>
+        <v>3.2679522911481329</v>
       </c>
       <c r="D127" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>77.508779462911548</v>
+        <v>77.579944920401076</v>
       </c>
       <c r="E127" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4.1244190088018255</v>
+        <v>4.2123673772920718</v>
       </c>
       <c r="F127" s="1">
         <v>2</v>
@@ -5478,15 +5468,15 @@
       </c>
       <c r="C128" s="1">
         <f ca="1">10+RAND()*(5-1)</f>
-        <v>11.57644009076528</v>
+        <v>11.678344446026149</v>
       </c>
       <c r="D128" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>75.780007117174662</v>
+        <v>75.881911472435533</v>
       </c>
       <c r="E128" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>15.276377676852466</v>
+        <v>15.390155861147967</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -5516,15 +5506,15 @@
       </c>
       <c r="C129" s="1">
         <f t="shared" ref="C129:C138" ca="1" si="15">10+RAND()*(5-1)</f>
-        <v>13.24378799735384</v>
+        <v>10.316705528810294</v>
       </c>
       <c r="D129" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>102.63709915086937</v>
+        <v>99.710016682325829</v>
       </c>
       <c r="E129" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>12.903509653840075</v>
+        <v>10.346709259591357</v>
       </c>
       <c r="F129" s="1">
         <v>1</v>
@@ -5554,15 +5544,15 @@
       </c>
       <c r="C130" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>13.526435397555391</v>
+        <v>11.776910916748278</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" ref="D130:D150" ca="1" si="16">A130+C130</f>
-        <v>103.36739516078579</v>
+        <v>101.61787067997868</v>
       </c>
       <c r="E130" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>13.085785296722733</v>
+        <v>11.589409262310621</v>
       </c>
       <c r="F130" s="1">
         <v>2</v>
@@ -5592,15 +5582,15 @@
       </c>
       <c r="C131" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>12.209170292643201</v>
+        <v>12.628192049081258</v>
       </c>
       <c r="D131" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>94.03312237628441</v>
+        <v>94.452144132722481</v>
       </c>
       <c r="E131" s="2">
         <f t="shared" ref="E131:E150" ca="1" si="17">C131/D131*100</f>
-        <v>12.98390395225503</v>
+        <v>13.369936876537547</v>
       </c>
       <c r="F131" s="1">
         <v>0</v>
@@ -5630,15 +5620,15 @@
       </c>
       <c r="C132" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>11.112961290845213</v>
+        <v>13.265373212689807</v>
       </c>
       <c r="D132" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>92.604818725927913</v>
+        <v>94.757230647772516</v>
       </c>
       <c r="E132" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>12.000413632615595</v>
+        <v>13.999325562815654</v>
       </c>
       <c r="F132" s="1">
         <v>1</v>
@@ -5668,15 +5658,15 @@
       </c>
       <c r="C133" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>12.397117145036454</v>
+        <v>11.726413836591751</v>
       </c>
       <c r="D133" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>87.330767758850385</v>
+        <v>86.66006445040567</v>
       </c>
       <c r="E133" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>14.1955893245655</v>
+        <v>13.531508326194025</v>
       </c>
       <c r="F133" s="1">
         <v>2</v>
@@ -5706,15 +5696,15 @@
       </c>
       <c r="C134" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10.492274869915011</v>
+        <v>11.948354051653761</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>81.557158837889205</v>
+        <v>83.013238019627963</v>
       </c>
       <c r="E134" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>12.864934261344803</v>
+        <v>14.393311641245276</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
@@ -5744,15 +5734,15 @@
       </c>
       <c r="C135" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>11.172765813335955</v>
+        <v>10.593781510737884</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>91.382581764306181</v>
+        <v>90.803597461708108</v>
       </c>
       <c r="E135" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>12.226362614871986</v>
+        <v>11.666698023946994</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -5782,15 +5772,15 @@
       </c>
       <c r="C136" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>11.395560867999523</v>
+        <v>12.213482761656174</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>98.390444264299305</v>
+        <v>99.208366157955965</v>
       </c>
       <c r="E136" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>11.581979279805294</v>
+        <v>12.310940331594928</v>
       </c>
       <c r="F136" s="1">
         <v>2</v>
@@ -5820,15 +5810,15 @@
       </c>
       <c r="C137" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>13.218822173587812</v>
+        <v>12.368688358487741</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>89.634322474143616</v>
+        <v>88.784188659043551</v>
       </c>
       <c r="E137" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>14.747500520686128</v>
+        <v>13.931183632242233</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -5858,15 +5848,15 @@
       </c>
       <c r="C138" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>13.478437622405636</v>
+        <v>13.287611880644144</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>97.203212118196774</v>
+        <v>97.012386376435288</v>
       </c>
       <c r="E138" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>13.866247142137833</v>
+        <v>13.696819939141051</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
@@ -5896,15 +5886,15 @@
       </c>
       <c r="C139" s="1">
         <f t="shared" ref="C139:C150" ca="1" si="18" xml:space="preserve"> -(1+RAND()*(5-1))</f>
-        <v>-1.7666342445122516</v>
+        <v>-3.1249874500418198</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>83.949031702841395</v>
+        <v>82.590678497311828</v>
       </c>
       <c r="E139" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.1044128903900829</v>
+        <v>-3.7837047798844905</v>
       </c>
       <c r="F139" s="1">
         <v>2</v>
@@ -5934,15 +5924,15 @@
       </c>
       <c r="C140" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.3456865669613154</v>
+        <v>-3.2457026462478251</v>
       </c>
       <c r="D140" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>86.925560312810475</v>
+        <v>86.025544233523974</v>
       </c>
       <c r="E140" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.6985003703400054</v>
+        <v>-3.7729521796887182</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
@@ -5972,15 +5962,15 @@
       </c>
       <c r="C141" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.3818429220176118</v>
+        <v>-3.9405892555185948</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>69.641465256419636</v>
+        <v>68.082718922918659</v>
       </c>
       <c r="E141" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-3.4201504997743428</v>
+        <v>-5.7879434280232251</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
@@ -6010,15 +6000,15 @@
       </c>
       <c r="C142" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.4578038877225028</v>
+        <v>-2.2066703982020437</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>76.831293225940641</v>
+        <v>77.082426715461096</v>
       </c>
       <c r="E142" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-3.1989620173315934</v>
+        <v>-2.8627412138277069</v>
       </c>
       <c r="F142" s="1">
         <v>2</v>
@@ -6048,15 +6038,15 @@
       </c>
       <c r="C143" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.2235451623574924</v>
+        <v>-4.8612646386997191</v>
       </c>
       <c r="D143" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>66.404452165496082</v>
+        <v>62.766732689153855</v>
       </c>
       <c r="E143" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.842564952283801</v>
+        <v>-7.7449700349620869</v>
       </c>
       <c r="F143" s="1">
         <v>0</v>
@@ -6086,15 +6076,15 @@
       </c>
       <c r="C144" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.2759972727059816</v>
+        <v>-3.7005561345655886</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>74.881840795253041</v>
+        <v>72.457281933393432</v>
       </c>
       <c r="E144" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.7040142965968199</v>
+        <v>-5.1072246098981955</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -6124,15 +6114,15 @@
       </c>
       <c r="C145" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.3212455491534913</v>
+        <v>-2.5652750983885637</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>69.698787904587022</v>
+        <v>70.454758355351942</v>
       </c>
       <c r="E145" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.7651410433421804</v>
+        <v>-3.641024621005883</v>
       </c>
       <c r="F145" s="1">
         <v>2</v>
@@ -6162,15 +6152,15 @@
       </c>
       <c r="C146" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.4130215180838008</v>
+        <v>-3.4020852560843009</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>84.392171560586604</v>
+        <v>83.403107822586094</v>
       </c>
       <c r="E146" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.8592954458476645</v>
+        <v>-4.079086912829637</v>
       </c>
       <c r="F146" s="1">
         <v>0</v>
@@ -6200,15 +6190,15 @@
       </c>
       <c r="C147" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.3664781517343285</v>
+        <v>-4.9365150001480167</v>
       </c>
       <c r="D147" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>80.241527237010558</v>
+        <v>76.671490388596865</v>
       </c>
       <c r="E147" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.7029563105125631</v>
+        <v>-6.4385275088929408</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -6238,15 +6228,15 @@
       </c>
       <c r="C148" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.4286418931007288</v>
+        <v>-4.2904525211567481</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>85.938908893036512</v>
+        <v>85.077098264980492</v>
       </c>
       <c r="E148" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-3.9896269771916382</v>
+        <v>-5.0430169912398011</v>
       </c>
       <c r="F148" s="1">
         <v>2</v>
@@ -6276,15 +6266,15 @@
       </c>
       <c r="C149" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.7058753366983268</v>
+        <v>-1.9589661898268957</v>
       </c>
       <c r="D149" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>60.539160508025574</v>
+        <v>63.286069654897005</v>
       </c>
       <c r="E149" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-7.7732748475666043</v>
+        <v>-3.0954145209352766</v>
       </c>
       <c r="F149" s="1">
         <v>0</v>
@@ -6314,15 +6304,15 @@
       </c>
       <c r="C150" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.1793285103137068</v>
+        <v>-3.4386580419844046</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>63.453891868832883</v>
+        <v>62.194562337162189</v>
       </c>
       <c r="E150" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>-3.4345072400265866</v>
+        <v>-5.5288724813965846</v>
       </c>
       <c r="F150" s="1">
         <v>1</v>
@@ -6340,172 +6330,62 @@
         <v>0</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K153" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="between">
       <formula>-10</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="between">
       <formula>-10</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
       <formula>-15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D150">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="between">
       <formula>-2</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+  <conditionalFormatting sqref="G1:H1048576">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6528,5 +6408,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>